--- a/medicine/Soins infirmiers et profession infirmière/Mona_Louise_Parsons/Mona_Louise_Parsons.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Mona_Louise_Parsons/Mona_Louise_Parsons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mona Louise Parsons, née le 17 février 1901 à Middleton et morte le 28 novembre 1976 à Wolfville, est une actrice, infirmière et résistante canadienne.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pendant la Seconde Guerre mondiale[1], elle est membre d'un réseau informel de résistance aux Pays-Bas de 1940 à 1941. Elle est la seule canadienne à être emprisonnée par les nazis et une des premières à être jugée par un tribunal militaire nazi aux Pays-Bas[2].
-Elle a reçu une recommandation pour sa bravoure en aidant les aviateurs alliés à échapper à la capture par Arthur Tedder de la Royal Air Force (RAF) au nom du peuple britannique, et de Dwight D. Eisenhower, au nom du peuple américain[3].
-Une statue en bronze de 2,4 mètres de hauteur est érigée en 2017 en son honneur devant le bureau de poste de Wolfville[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant la Seconde Guerre mondiale, elle est membre d'un réseau informel de résistance aux Pays-Bas de 1940 à 1941. Elle est la seule canadienne à être emprisonnée par les nazis et une des premières à être jugée par un tribunal militaire nazi aux Pays-Bas.
+Elle a reçu une recommandation pour sa bravoure en aidant les aviateurs alliés à échapper à la capture par Arthur Tedder de la Royal Air Force (RAF) au nom du peuple britannique, et de Dwight D. Eisenhower, au nom du peuple américain.
+Une statue en bronze de 2,4 mètres de hauteur est érigée en 2017 en son honneur devant le bureau de poste de Wolfville.
 </t>
         </is>
       </c>
